--- a/data/oferty_2025-06-05.xlsx
+++ b/data/oferty_2025-06-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,3162 +446,6056 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>price_per_m2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>location</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>rooms</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>description</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>price_per_m2</t>
+          <t>url</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>date</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>Powierzchnia</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Liczba pokoi</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Ogrzewanie</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Piętro</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Czynsz</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Stan wykończenia</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Rynek</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Forma własności</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Dostępne od</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Typ ogłoszeniodawcy</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Informacje dodatkowe</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Rok budowy</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Winda</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Rodzaj zabudowy</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Materiał budynku</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Okna</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Certyfikat energetyczny</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Bezpieczeństwo</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Wyposażenie</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Zabezpieczenia</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mieszkanie dwupokojowe Powstan Narodowych</t>
+          <t>Mieszkanie w kamienicy przy Placu Unii Lubelskiej</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>410 000 zł</t>
+          <t>1 118 000 zł</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>os. Powstań Narodowych, Rataje, Nowe Miasto, Poznań, wielkopolskie</t>
+          <t>25 820 zł/m²</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Puławska, Ujazdów, Śródmieście, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10 925 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/mieszkanie-w-kamienicy-przy-placu-unii-lubelskiej-ID4vDyW</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:52:43.068738</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>43.3 m²</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-dwupokojowe-powstan-narodowych-ID4vIb4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.277461</t>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>4/6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>620 zł</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>prywatny</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>piwnica oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>kamienica</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>W trakcie realizacji / Zwolnione</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>monitoring / ochrona teren zamknięty</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>meble pralka zmywarka lodówka kuchenka piekarnik</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>drzwi / okna antywłamaniowe domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>internet telewizja kablowa</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sprzedam 2 pokojowe mieszkanie 40,3 m w Ursusie - Skorosze</t>
+          <t>Villa Park | apartament 3-pok. | C10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>639 000 zł</t>
+          <t>443 674 zł</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ul. Józefa Chełmońskiego, Skorosze, Ursus, Warszawa, mazowieckie</t>
+          <t>8 600 zł/m²</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Wypoczynkowa, Augustów, augustowski, podlaskie</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15 856 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/villa-park-apartament-3-pok-c10-ID4vxGl</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:52:44.479058</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>51.59 m²</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/sprzedam-2-pokojowe-mieszkanie-40-3-m-w-ursusie-skorosze-ID4vI57</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.279404</t>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>taras garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>apartamentowiec</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>monitoring / ochrona teren zamknięty</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>klimatyzacja</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>internet</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mieszkanie 2-pokojowe  82,5m2 w centrum; z ogrodem 302m2</t>
+          <t>1-pokojowe mieszkanie 27m2 + ogródek</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512 000 zł</t>
+          <t>363 768 zł</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lidzbark Warmiński, lidzbarski, warmińsko-mazurskie</t>
+          <t>13 029 zł/m²</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Alfonsa Flisykowskiego, Jasień, Gdańsk, pomorskie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6206 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/1-pokojowe-mieszkanie-27m2-ogrodek-ID4ujfl</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:52:45.230694</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>27.92 m²</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-2-pokojowe-82-5m2-w-centrum-z-ogrodem-302m2-ID4vI00</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.280759</t>
-        </is>
-      </c>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2026-11-15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>taras ogródek garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nowy 2 pok. lokal 35 m2 centrum Bolszewa.</t>
+          <t>Grunwald, Palacza, 3 pokoje osobna jasna kuchnia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>398 000 zł</t>
+          <t>427 000 zł</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ul. Długa, Bolszewo, Wejherowo, wejherowski, pomorskie</t>
+          <t>8 896 zł/m²</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Macieja Palacza, Górczyn, Grunwald, Poznań, wielkopolskie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11 371 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/grunwald-palacza-3-pokoje-osobna-jasna-kuchnia-ID4vIGi</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2 piętro</t>
+          <t>2025-06-05 11:52:46.135699</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>48 m²</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/nowy-2-pok-lokal-35-m2-centrum-bolszewa-ID4vppr</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.283751</t>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>6/10</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>550 zł</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>do remontu</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>spółdzielcze wł. prawo do lokalu</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>balkon piwnica oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>drewniane</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>telewizja kablowa</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rozkładowe 3 pokoje na Woli – metro, balkon, piękny widok</t>
+          <t>Penthouse dwupoziomowy z ogrodem na dachu osiedle Marina Mokotów</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>665 000 zł</t>
+          <t>6 400 000 zł</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ul. Tadeusza Krępowieckiego, Ulrychów, Wola, Warszawa, mazowieckie</t>
+          <t>27 618 zł/m²</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Warowna, Wyględów, Mokotów, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12 245 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/penthouse-dwupoziomowy-z-ogrodem-na-dachu-osiedle-marina-mokotow-ID4vIFT</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9 piętro</t>
+          <t>2025-06-05 11:52:46.535169</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>231.73 m²</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/rozkladowe-3-pokoje-na-woli-metro-balkon-piekny-widok-ID4vAbp</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.285935</t>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>prywatny</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>balkon ogródek taras garaż/miejsce parkingowe pom. użytkowe dwupoziomowe</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>apartamentowiec</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>drewniane</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>monitoring / ochrona teren zamknięty</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>meble pralka zmywarka lodówka kuchenka piekarnik telewizor klimatyzacja</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>rolety antywłamaniowe drzwi / okna antywłamaniowe domofon / wideofon system alarmowy</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>internet telewizja kablowa</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mieszkanie, 18 m², Katowice</t>
+          <t>2 pokojowe mieszkanie do własnej aranżacji</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>199 000 zł</t>
+          <t>465 000 zł</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ul. Oswobodzenia, Janów-Nikiszowiec, Katowice, śląskie</t>
+          <t>12 989 zł/m²</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 pokój</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Giuseppe Verdiego, Kobiałka, Białołęka, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11 056 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/2-pokojowe-mieszkanie-do-wlasnej-aranzacji-ID4vIGb</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3 piętro</t>
+          <t>2025-06-05 11:52:46.990355</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>35.8 m²</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-18-m-katowice-ID4wZcu</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.287908</t>
-        </is>
-      </c>
+          <t>kotłownia</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>500 zł</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>balkon</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mieszkanie tupu segment na kameralnym osiedlu</t>
+          <t>Mieszkanie 74,47 m2 z ogródkiem Pobiedziska ul. Fiołkowa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>424 499,69 zł</t>
+          <t>498 651 zł</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ul. Bukowa, Chrzanówek, Opinogóra Górna, ciechanowski, mazowieckie</t>
+          <t>6 696 zł/m²</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Fiołkowa, Pobiedziska, Pobiedziska, poznański, wielkopolskie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5998 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/mieszkanie-74-47-m2-z-ogrodkiem-pobiedziska-ul-fiolkowa-ID4vIvT</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1 piętro</t>
+          <t>2025-06-05 11:52:47.466501</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>74.47 m²</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-tupu-segment-na-kameralnym-osiedlu-ID4vIg9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.289685</t>
-        </is>
-      </c>
+          <t>gazowe</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>parter</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>prywatny</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Przestronne 3-pokoje na Osowej z widokiem na las!</t>
+          <t>Dwa mieszkania na sprzedaż w cenie jednego Legnica</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>509 000 zł</t>
+          <t>460 000 zł</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Osówiec, Sicienko, bydgoski, kujawsko-pomorskie</t>
+          <t>4 381 zł/m²</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Tadeusza Kościuszki, Legnica, dolnośląskie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7271 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/dwa-mieszkania-na-sprzedaz-w-cenie-jednego-legnica-ID4sz2V</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3 piętro</t>
+          <t>2025-06-05 11:52:48.698946</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>105 m²</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/przestronne-3-pokoje-na-osowej-z-widokiem-na-las-ID4vhgZ</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.291601</t>
-        </is>
-      </c>
+          <t>gazowe</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>do remontu</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>piwnica oddzielna kuchnia pom. użytkowe</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>kamienica</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>monitoring / ochrona</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>...REZERWACJA... Atrakcyjna kawalerka na Grabskiego</t>
+          <t>Mieszkanie, 54,97 m², Tarnów</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>449 000 zł</t>
+          <t>505 724 zł</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ul. Władysława Grabskiego, Drabinianka, Rzeszów, podkarpackie</t>
+          <t>9 200 zł/m²</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1 pokój</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Kąpielowa, Tarnów, małopolskie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>14 031 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/mieszkanie-54-97-m-tarnow-ID4vIG0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:52:49.232943</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>54.97 m²</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/rezerwacja-atrakcyjna-kawalerka-na-grabskiego-ID4vxO8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.293925</t>
+          <t>gazowe</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>parter/2</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0 zł</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>prywatny</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe pom. użytkowe</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>szeregowiec</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>pustak</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>internet</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3 pokoje z balkonem poniżej ceny rynkowej</t>
+          <t>2-pok. mieszkanie na sprzedaż Sosnowiec</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260 000 zł</t>
+          <t>269 000 zł</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Głogów, głogowski, dolnośląskie</t>
+          <t>5 723 zł/m²</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Kaliska, Sielec, Sosnowiec, śląskie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4553 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/2-pok-mieszkanie-na-sprzedaz-sosnowiec-ID4vIG7</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3 piętro</t>
+          <t>2025-06-05 11:52:50.288098</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>47 m²</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/3-pokoje-z-balkonem-ponizej-ceny-rynkowej-ID4vIg6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.295038</t>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10/10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>710 zł</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>spółdzielcze wł. prawo do lokalu</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>balkon pom. użytkowe piwnica oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>wielka płyta</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>monitoring / ochrona</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>meble lodówka kuchenka piekarnik</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>drzwi / okna antywłamaniowe domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>internet telewizja kablowa telefon</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Genialna lokalizacja na Glinkach duże mieszkanie</t>
+          <t>Przestronna kawalerka w dobrej lokalizacji.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>379 900 zł</t>
+          <t>299 000 zł</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Glinki, Koronowo, bydgoski, kujawsko-pomorskie</t>
+          <t>8 794 zł/m²</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>Planty, Radom, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5670 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/przestronna-kawalerka-w-dobrej-lokalizacji-ID4vtPW</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4 piętro</t>
+          <t>2025-06-05 11:52:50.835652</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>34 m²</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/genialna-lokalizacja-na-glinkach-duze-mieszkanie-ID4vBgi</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.297421</t>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>parter/4</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>450 zł</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>prywatny</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>piwnica</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>meble zmywarka kuchenka piekarnik</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>internet telewizja kablowa telefon</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>58m2 na ul. Cichej w nowym budonictwie</t>
+          <t>Duża kawalerka w centrum Koszalina</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>520 000 zł</t>
+          <t>265 000 zł</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bielawy, Bydgoszcz, kujawsko-pomorskie</t>
+          <t>7 686 zł/m²</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>Koszalin, zachodniopomorskie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8903 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/duza-kawalerka-w-centrum-koszalina-ID4vzvI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2 piętro</t>
+          <t>2025-06-05 11:52:51.326636</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>34.48 m²</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/58m2-na-ul-cichej-w-nowym-budonictwie-ID4vCdG</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.299288</t>
+          <t>gazowe</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>323 zł</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>prywatny</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>garaż/miejsce parkingowe pom. użytkowe piwnica</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>kamienica</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>W trakcie realizacji / Zwolnione</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>meble pralka lodówka kuchenka piekarnik</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>internet telewizja kablowa telefon</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>53m2 na ul. Kijowskiej w nowym budonictwie</t>
+          <t>/OMS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>529 000 zł</t>
+          <t>329 800 zł</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bartodzieje, Bydgoszcz, kujawsko-pomorskie</t>
+          <t>19 400 zł/m²</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>Oliwa, Gdańsk, pomorskie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9957 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/oms-ID4vIG4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2 piętro</t>
+          <t>2025-06-05 11:52:51.699417</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>17 m²</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/53m2-na-ul-kijowskiej-w-nowym-budonictwie-ID4vCdH</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.301004</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1/10</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>400 zł</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>wielka płyta</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>meble lodówka piekarnik kuchenka</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3 pokoje na monitorowanym osiedlu w Gumieńcach</t>
+          <t>3-pokojowe mieszkanie przy ul. Szewczenki</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>799 000 zł</t>
+          <t>455 000 zł</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gumieńce, Zachód, Szczecin, zachodniopomorskie</t>
+          <t>10 450 zł/m²</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Tarasa Szewczenki, Podleśna, Olsztyn, warmińsko-mazurskie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10 996 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/3-pokojowe-mieszkanie-przy-ul-szewczenki-ID4vIG3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1 piętro</t>
+          <t>2025-06-05 11:52:52.134080</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>43.54 m²</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/3-pokoje-na-monitorowanym-osiedlu-w-gumiencach-ID4vk46</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.301583</t>
-        </is>
-      </c>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>707 zł</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe piwnica</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>meble piekarnik lodówka zmywarka</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Urocze mieszkanie z antresolą w cudownym miejscu do życia.</t>
+          <t>Nowoczesne 2-pok. z dużym balkonem i garażem</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>680 000 zł</t>
+          <t>670 000 zł</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ul. prof. Stefana Myczkowskiego, Mydlniki, Bronowice, Kraków, małopolskie</t>
+          <t>15 765 zł/m²</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>Ząbki, wołomiński, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>17 681 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/nowoczesne-2-pok-z-duzym-balkonem-i-garazem-ID4wReK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3 piętro</t>
+          <t>2025-06-05 11:52:52.560336</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>42.5 m²</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/urocze-mieszkanie-z-antresola-w-cudownym-miejscu-do-zycia-ID4vppo</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.302124</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>parter/4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>450 zł</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>meble lodówka piekarnik zmywarka</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mieszkanie 2 - pokojowe |38,03 m² |Balkon|Miejsce postojowe|Kręczki</t>
+          <t>Eleganckie M2 z miejscem postojowym</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>499 000 zł</t>
+          <t>399 000 zł</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ul. Koniczyny, Pgr Kręczki Kaputy, Ożarów Mazowiecki, warszawski zachodni, mazowieckie</t>
+          <t>7 980 zł/m²</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>Dolinki, Gorzów Wielkopolski, lubuskie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13 121 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/eleganckie-m2-z-miejscem-postojowym-ID4tnns</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:52:53.089836</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-2-pokojowe-38-03-m-balkon-miejsce-postojowe-kreczki-ID4vIg1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.302680</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>parter/2</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>700 zł</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>piekarnik zmywarka kuchenka</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nowe, Do wprowadzenia, Premium</t>
+          <t>Mieszkanie Kraków , Grzegórzki al.Pokoju ,63,3m</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>765 500 zł</t>
+          <t>839 999 zł</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ul. Zabrska, Śródmieście, Katowice, śląskie</t>
+          <t>13 270 zł/m²</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>al. Pokoju, Grzegórzki, Grzegórzki, Kraków, małopolskie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>15 998 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/mieszkanie-krakow-grzegorzki-al-pokoju-63-3m-ID4uNrx</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>9 piętro</t>
+          <t>2025-06-05 11:52:53.704392</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>63.3 m²</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/nowe-do-wprowadzenia-premium-ID4vxO2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.303227</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>550 zł</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>prywatny</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe piwnica oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>W trakcie realizacji / Zwolnione</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>teren zamknięty</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Apart.4pok.z.tarasem.35m2.widok.na.Morze</t>
+          <t>Mieszkanie 3 pokoje wysoki parter</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3 100 000 zł</t>
+          <t>299 000 zł</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ul. Grudziądzka, Wrzeszcz Dolny, Gdańsk, pomorskie</t>
+          <t>3 934 zł/m²</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4 pokoje</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Jaworzyńska, Legnica, dolnośląskie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>35 809 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/mieszkanie-3-pokoje-wysoki-parter-ID4uEo7</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10+ piętro</t>
+          <t>2025-06-05 11:52:54.934992</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>76 m²</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/apart-4pok-z-tarasem-35m2-widok-na-morze-ID4vIg0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.303793</t>
-        </is>
-      </c>
+          <t>gazowe</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>parter/4</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>350 zł</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>piwnica pom. użytkowe</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>kamienica</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mieszkanie M3 w ścisłym centrum Zawiercia</t>
+          <t>2 pokoje, balkon, m. postojowe, budynek 2009r, wyposażenie, autobus</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>350 000 zł</t>
+          <t>899 000 zł</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Zawiercie, zawierciański, śląskie</t>
+          <t>14 658 zł/m²</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Józefa Chełmońskiego, Bronowice Wielkie, Prądnik Biały, Kraków, małopolskie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7143 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/2-pokoje-balkon-m-postojowe-budynek-2009r-wyposazenie-autobus-ID4vIFY</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5 piętro</t>
+          <t>2025-06-05 11:52:55.422599</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>61.33 m²</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-m3-w-scislym-centrum-zawiercia-ID4tMbZ</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.304330</t>
-        </is>
-      </c>
+          <t>kotłownia</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>720 zł</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>teren zamknięty</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>meble pralka zmywarka lodówka kuchenka piekarnik telewizor</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-Okazja-38m2-2pok-Po remoncie-Media Miejskie-Borek</t>
+          <t>Active City etap V | mieszkanie 2-pok. | D1_1_16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>475 000 zł</t>
+          <t>365 150 zł</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ul. Podchorążych, Powstańców Śląskich, Krzyki, Wrocław, dolnośląskie</t>
+          <t>10 900 zł/m²</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Aleksandra Czekanowskiego, Wrotków, Lublin, lubelskie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12 500 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/active-city-etap-v-mieszkanie-2-pok-d1-1-16-ID4sDlJ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2 piętro</t>
+          <t>2025-06-05 11:52:56.059364</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>33.5 m²</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/okazja-38m2-2pok-po-remoncie-media-miejskie-borek-ID4vIfY</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.304881</t>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe pom. użytkowe</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>telewizja kablowa internet</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>obok Ronda Solidarności, Szpitala CKD, Wydziału Prawa⭐2xgaraż⭐komórka</t>
+          <t>Przestronne M3 z ogródkiem i miejscem parkingowym</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>699 900 zł</t>
+          <t>649 000 zł</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Radiostacja, Śródmieście, Łódź, łódzkie</t>
+          <t>10 594 zł/m²</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4 pokoje</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Policka, Stołczyn, Północ, Szczecin, zachodniopomorskie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8749 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/przestronne-m3-z-ogrodkiem-i-miejscem-parkingowym-ID4uIj5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4 piętro</t>
+          <t>2025-06-05 11:52:56.538120</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>61.26 m²</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/obok-ronda-solidarnosci-szpitala-ckd-wydzialu-prawa2xgarazkomorka-ID4vppk</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.305400</t>
-        </is>
-      </c>
+          <t>gazowe</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>parter/3</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>550 zł</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>taras ogródek garaż/miejsce parkingowe oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>monitoring / ochrona</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>meble</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nowoczesne 2 pokoje na Bartodziejach –winda,balkon,świetna lokalizacja</t>
+          <t>Na sprzedaż 3-pokojowe mieszkanie z balkonem</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>351 855 zł</t>
+          <t>279 000 zł</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ul. Kozacka, Bartodzieje, Bydgoszcz, kujawsko-pomorskie</t>
+          <t>5 073 zł/m²</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>Wodzisław Śląski, wodzisławski, śląskie</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10 500 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/na-sprzedaz-3-pokojowe-mieszkanie-z-balkonem-ID4vIFV</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:52:57.050718</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/nowoczesne-2-pokoje-na-bartodziejach-winda-balkon-swietna-lokalizacja-ID4vIfW</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.305949</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1 150 zł</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>do remontu</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>spółdzielcze wł. prawo do lokalu</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>balkon</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mieszkanie 3 pokojowe w Śródmieściu (os. M)</t>
+          <t>104 m2, poddasze, strych, kamienica, Ochota</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>335 000 zł</t>
+          <t>1 290 000 zł</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ul. Romana Dmowskiego, Osiedle Magdalena, Tychy, śląskie</t>
+          <t>12 404 zł/m²</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Grójecka, Stara Ochota, Ochota, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6979 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/104-m2-poddasze-strych-kamienica-ochota-ID4vIFW</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9 piętro</t>
+          <t>2025-06-05 11:52:57.670380</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>104 m²</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-3-pokojowe-w-srodmiesciu-os-m-ID4wN57</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.307170</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1 500 zł</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>do remontu</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>spółdzielcze wł. prawo do lokalu</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>piwnica oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>kamienica</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Połączone dwie kawalerki, możliwy podział.</t>
+          <t>kamienica z historią*winda*korzystna oferta</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>340 000 zł</t>
+          <t>1 980 000 zł</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ul. ks. Konstantego Damrota, Centrum Południe, Zabrze, śląskie</t>
+          <t>18 333 zł/m²</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>al. Aleja Niepodległości, Stary Mokotów, Mokotów, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4527 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/kamienica-z-historiawindakorzystna-oferta-ID4u71f</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2 piętro</t>
+          <t>2025-06-05 11:52:58.237821</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>108 m²</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/polaczone-dwie-kawalerki-mozliwy-podzial-ID4vsvs</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.307801</t>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1 550 zł</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>balkon piwnica</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>kamienica</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>monitoring / ochrona</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>piekarnik lodówka pralka zmywarka</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>drzwi / okna antywłamaniowe domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>telefon internet telewizja kablowa</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bezpośrednio - ustawne 53m na Mokotowie</t>
+          <t>3 pokoje, Błonie, Jasne</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>999 999 zł</t>
+          <t>1 667 730 zł</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ul. Jadźwingów, Służew, Mokotów, Warszawa, mazowieckie</t>
+          <t>23 000 zł/m²</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Królowej Jadwigi, Zwierzyniec, Zwierzyniec, Kraków, małopolskie</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18 868 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/3-pokoje-blonie-jasne-ID4siB3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6 piętro</t>
+          <t>2025-06-05 11:52:58.730702</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>72.51 m²</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/bezposrednio-ustawne-53m-na-mokotowie-ID4vIfv</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.308361</t>
-        </is>
-      </c>
+          <t>gazowe</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>apartamentowiec</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bukowe 3pok. 68m2, Taras 23m2. Garaż + Pwinica</t>
+          <t>Przestronne mieszkanie o pow. 62,9 m² po remoncie!</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>949 000 zł</t>
+          <t>539 000 zł</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bukowe-Klęskowo, Prawobrzeże, Szczecin, zachodniopomorskie</t>
+          <t>8 556 zł/m²</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Mieszka I I, Piasta I, Białystok, podlaskie</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>13 921 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/przestronne-mieszkanie-o-pow-62-9-m-po-remoncie-ID4wBPA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4 piętro</t>
+          <t>2025-06-05 11:52:59.160225</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>63 m²</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/bukowe-3pok-68m2-taras-23m2-garaz-pwinica-ID4w4o7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.308931</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1/11</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>950 zł</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>balkon piwnica oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>wielka płyta</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>W trakcie realizacji / Zwolnione</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>lodówka meble piekarnik kuchenka telewizor pralka</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>drzwi / okna antywłamaniowe</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mieszkanie Ustronie</t>
+          <t>3-pokojowe mieszkanie 71m2 + balkon</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>510 000 zł</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ul. Marii Konopnickiej, Lubin, lubiński, dolnośląskie</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. 23 Marca, Przylesie, Sopot, pomorskie</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>8571 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/3-pokojowe-mieszkanie-71m2-balkon-ID4ui9e</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2 piętro</t>
+          <t>2025-06-05 11:52:59.927647</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>71.03 m²</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-ustronie-ID4vIfP</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.309490</t>
-        </is>
-      </c>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>7/7</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OKAZJA! Gotowe M2 z balkonem – 3 minuty do tramwaju! Wysoki Parter</t>
+          <t>1-pokojowe mieszkanie 30m2 + ogródek Bezpośrednio</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>695 000 zł</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ul. Aleksandra Gierymskiego, Sielce, Mokotów, Warszawa, mazowieckie</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Powstańców Warszawskich, Siedlce, Gdańsk, pomorskie</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14 662 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/1-pokojowe-mieszkanie-30m2-ogrodek-bezposrednio-ID4ugxb</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:53:00.429619</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>30.42 m²</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/okazja-gotowe-m2-z-balkonem-3-minuty-do-tramwaju-wysoki-parter-ID4vIfO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.310047</t>
-        </is>
-      </c>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>parter/6</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>taras ogródek garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>❗Gotowe 2 pokoje + Obok Manufaktury i Uniwerystetów❗Umów sie i ZOBACZ❗</t>
+          <t>1-pokojowe mieszkanie 41m2 + loggia</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>319 000 zł</t>
+          <t>607 965 zł</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Centrum, Śródmieście, Łódź, łódzkie</t>
+          <t>14 527 zł/m²</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Leona Heyki, Międzyodrze-Wyspa Pucka, Śródmieście, Szczecin, zachodniopomorskie</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9667 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/1-pokojowe-mieszkanie-41m2-loggia-ID4ujWe</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>2025-06-05 11:53:01.593387</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>41.85 m²</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/gotowe-2-pokoje-obok-manufaktury-i-uniwerystetowumow-sie-i-zobacz-ID4vteH</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.310593</t>
-        </is>
-      </c>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2/16</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2027-01-31</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Zgarnij dodatkowy BONUS ❗ Nowe 2 pokoje +Obok Deptaka i Uniwersytetu❗</t>
+          <t>200 metrów ogród, 2-pokoje, Wrocławska</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>354 500 zł</t>
+          <t>842 030 zł</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Centrum, Śródmieście, Łódź, łódzkie</t>
+          <t>23 000 zł/m²</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Wrocławska, Krowodrza, Krowodrza, Kraków, małopolskie</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9329 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/200-metrow-ogrod-2-pokoje-wroclawska-ID4t2fm</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>2025-06-05 11:53:02.043145</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>36.61 m²</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/zgarnij-dodatkowy-bonus-nowe-2-pokoje-obok-deptaka-i-uniwersytetu-ID4vydM</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.311147</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>parter/5</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>apartamentowiec</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nowe 3 pokoje ❗ GARAŻ/KOMÓRKA ❗ Zgarnij dod RABAT + DNI OTWARTE ZOBACZ</t>
+          <t>Smolec/5 pokoi/2 poziomy/balkon/nowe budownictwo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>466 000 zł</t>
+          <t>730 000 zł</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Centrum, Śródmieście, Łódź, łódzkie</t>
+          <t>7 935 zł/m²</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>Smolec, Kąty Wrocławskie, wrocławski, dolnośląskie</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8473 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/smolec-5-pokoi-2-poziomy-balkon-nowe-budownictwo-ID4wncr</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>2025-06-05 11:53:02.503897</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>92 m²</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/nowe-3-pokoje-garaz-komorka-zgarnij-dod-rabat-dni-otwarte-zobacz-ID4vu5v</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.311688</t>
-        </is>
-      </c>
+          <t>gazowe</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>450 zł</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Najtańsze 2 pokoje + 12min Starówka + DNI OTWARTE ZOBACZ</t>
+          <t>Centrum, Plac Getta, Bulwary Wiślane</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>391 000 zł</t>
+          <t>750 000 zł</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ujeścisko-Łostowice, Gdańsk, pomorskie</t>
+          <t>17 878 zł/m²</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Romualda Traugutta, Stare Podgórze, Podgórze, Kraków, małopolskie</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>9537 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/centrum-plac-getta-bulwary-wislane-ID4wkLK</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:53:03.929227</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>41.95 m²</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/najtansze-2-pokoje-12min-starowka-dni-otwarte-zobacz-ID4vjZN</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.312384</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>parter/4</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>kamienica</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>❗Ustawne 2  pokoje na NOWYM OSIEDLU _12min Starówka _ Parking ❗BEZ PCC</t>
+          <t>3-pokojowe mieszkanie 57m2 + balkon</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>390 000 zł</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ujeścisko-Łostowice, Gdańsk, pomorskie</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Ceglana, Brynów-Osiedle Zgrzebnioka, Katowice, śląskie</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9512 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/3-pokojowe-mieszkanie-57m2-balkon-ID4v3Nf</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>2025-06-05 11:53:04.624049</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>57.76 m²</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/ustawne-2-pokoje-na-nowym-osiedlu-12min-starowka-parking-bez-pcc-ID4vlit</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.312915</t>
-        </is>
-      </c>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2/6</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>❗Najtańsze 2 pokoje + Parking GRATIS _ 12min STARÓWKA + Umów sie ❗</t>
+          <t>2-pokojowe mieszkanie 34m2 + ogródek</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>417 000 zł</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ujeścisko-Łostowice, Gdańsk, pomorskie</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>al. Spółdzielczości Pracy, Ponikwoda, Lublin, lubelskie</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10 974 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/2-pokojowe-mieszkanie-34m2-ogrodek-ID4uKnE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>2025-06-05 11:53:05.205006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>34.94 m²</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/najtansze-2-pokoje-parking-gratis-12min-starowka-umow-sie-ID4vtcM</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.313426</t>
-        </is>
-      </c>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>parter/5</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2026-05-15</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>ogródek garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>teren zamknięty</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Stare Miasto blisko jeziora Jeziorak parter</t>
+          <t>Młyn nad Cybiną|45,76m2|2 pok.|balkon|miejsce post</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>289 500 zł</t>
+          <t>595 000 zł</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Iława, iławski, warmińsko-mazurskie</t>
+          <t>13 003 zł/m²</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Sarnia, Zieliniec, Nowe Miasto, Poznań, wielkopolskie</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6160 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/mlyn-nad-cybina-45-76m2-2-pok-balkon-miejsce-post-ID4vB9U</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:53:05.715638</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>45.76 m²</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/stare-miasto-blisko-jeziora-jeziorak-parter-ID4wIXJ</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.314005</t>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>715 zł</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>balkon</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>loft</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>teren zamknięty</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>lodówka telewizor meble pralka zmywarka piekarnik kuchenka</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>internet</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>57m2 przy ul. Grzybowskiej</t>
+          <t>Mieszkanie 2 pokojowe - stan deweloperski</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>990 000 zł</t>
+          <t>279 000 zł</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ul. Grzybowska, Mirów, Wola, Warszawa, mazowieckie</t>
+          <t>6 414 zł/m²</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Śródmiejska, Śródmieście, Kalisz, wielkopolskie</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>17 368 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/mieszkanie-2-pokojowe-stan-deweloperski-ID4vIFI</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5 piętro</t>
+          <t>2025-06-05 11:53:06.327815</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>43.5 m²</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/57m2-przy-ul-grzybowskiej-ID4vpoo</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.314537</t>
-        </is>
-      </c>
+          <t>gazowe</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>piwnica oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>kamienica</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kawalerka na Błoniu, atrakcyjna cena , okazja</t>
+          <t>Sandomierska 3 pokoje, kamienica</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>267 000 zł</t>
+          <t>1 268 475 zł</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Błonie, Bydgoszcz, kujawsko-pomorskie</t>
+          <t>19 500 zł/m²</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1 pokój</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Sandomierska, Stary Mokotów, Mokotów, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>7970 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/sandomierska-3-pokoje-kamienica-ID4vIFG</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:53:06.775061</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>65.05 m²</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/kawalerka-na-bloniu-atrakcyjna-cena-okazja-ID4vIfF</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.315075</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1 000 zł</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>do remontu</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>garaż/miejsce parkingowe piwnica oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>kamienica</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kamienica | Centum Gdyni | Biskość morza</t>
+          <t>Po Remoncie | Piwnica | Przeszklona Loggia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>695 000 zł</t>
+          <t>848 000 zł</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ul. Hieronima Derdowskiego, Śródmieście, Gdynia, pomorskie</t>
+          <t>14 697 zł/m²</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Klaudyny, Marymont-Ruda, Bielany, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>16 088 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/po-remoncie-piwnica-przeszklona-loggia-ID4v51n</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:53:07.247647</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>57.7 m²</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/kamienica-centum-gdyni-biskosc-morza-ID4vvaa</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.315751</t>
-        </is>
-      </c>
+          <t>kotłownia</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1/14</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>900 zł</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>spółdzielcze wł. prawo do lokalu</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>balkon piwnica</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Apartament z widokiem na Jezioro Iławskie</t>
+          <t>✅ NOWE 3 pok.60m2 &gt; Taras 10m2 &gt; dobry widok ! ❗</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>792 000 zł</t>
+          <t>742 016 zł</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Iława, iławski, warmińsko-mazurskie</t>
+          <t>12 400 zł/m²</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Jana Henryka Dąbrowskiego, Jeżyce, Jeżyce, Poznań, wielkopolskie</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>8995 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/nowe-3-pok-60m2-taras-10m2-dobry-widok-ID4vIFF</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3 piętro</t>
+          <t>2025-06-05 11:53:07.738142</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>59.84 m²</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/apartament-z-widokiem-na-jezioro-ilawskie-ID4wUzd</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.316386</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>8/9</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>2026-04-30</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>balkon taras garaż/miejsce parkingowe pom. użytkowe oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>monitoring / ochrona</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>drzwi / okna antywłamaniowe domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nowe mieszkanie z ogródkiem, 2 pok.</t>
+          <t>Po remoncie, LOGGIA, atrakcyjna lokalizacja - Bukowe.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>549 000 zł</t>
+          <t>410 000 zł</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ul. Półłanki, Rybitwy, Podgórze, Kraków, małopolskie</t>
+          <t>8 130 zł/m²</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>Koszalin, zachodniopomorskie</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15 597 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/po-remoncie-loggia-atrakcyjna-lokalizacja-bukowe-ID4vIFC</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>parter</t>
+          <t>2025-06-05 11:53:08.465984</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>50.43 m²</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/nowe-mieszkanie-z-ogrodkiem-2-pok-ID4wGtJ</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.316925</t>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>parter/4</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>balkon piwnica</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>meble pralka zmywarka lodówka kuchenka piekarnik</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>internet telewizja kablowa</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mieszkanie 2 pokoje, 3 piętro, loggia</t>
+          <t>Plac Kilińskiego | 2 ogródki | łazienka z oknem</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>338 000 zł</t>
+          <t>699 000 zł</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pabianice, pabianicki, łódzkie</t>
+          <t>12 899 zł/m²</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>pl. Plac Jana Kilińskiego, Mińsk Mazowiecki, miński, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>7511 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/plac-kilinskiego-2-ogrodki-lazienka-z-oknem-ID4vDBF</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3 piętro</t>
+          <t>2025-06-05 11:53:09.210737</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>54.19 m²</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-2-pokoje-3-pietro-loggia-ID4vIfM</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.317462</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>parter/3</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>700 zł</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>ogródek oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>teren zamknięty monitoring / ochrona</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>meble piekarnik lodówka pralka zmywarka</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>drzwi / okna antywłamaniowe domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2 pok + antresola | Rozkład - blisko Pkp i Rynku !</t>
+          <t>9500zl za m2! SUPER CENA!</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>680 000 zł</t>
+          <t>662 150 zł</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ul. marsz. Józefa Piłsudskiego, Przedmieście Świdnickie, Stare Miasto, Wrocław, dolnośląskie</t>
+          <t>9 500 zł/m²</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Aleksandra Puszkina, Wojska Polskiego, Gliwice, śląskie</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10 968 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/9500zl-za-m2-super-cena-ID4uEje</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1 piętro</t>
+          <t>2025-06-05 11:53:09.753624</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>69.7 m²</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/2-pok-antresola-rozklad-blisko-pkp-i-rynku-ID4vaTE</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.318047</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1 zł</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe piwnica</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>apartamentowiec</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>silikat</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>drewniane</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Na sprzedaż kawalerka 30,34 m² – ul. Rabsztyńska 17, Wola, Warszawa</t>
+          <t>Piłsudskiego | spokój i taras jak marzenie!</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>529 000 zł</t>
+          <t>699 000 zł</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ul. Rabsztyńska, Młynów, Wola, Warszawa, mazowieckie</t>
+          <t>11 748 zł/m²</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1 pokój</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Józefa Piłsudskiego, Mińsk Mazowiecki, miński, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>17 436 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/pilsudskiego-spokoj-i-taras-jak-marzenie-ID4vDDd</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1 piętro</t>
+          <t>2025-06-05 11:53:10.165773</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>59.5 m²</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/na-sprzedaz-kawalerka-30-34-m-ul-rabsztynska-17-wola-warszawa-ID4vIfH</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.318578</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>parter/4</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>700 zł</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>taras garaż/miejsce parkingowe oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>cegła</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>teren zamknięty</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>meble piekarnik lodówka pralka zmywarka</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>drzwi / okna antywłamaniowe domofon / wideofon</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Komfortowe 79 m², 2 poziomy + 2 miejsca postojowe</t>
+          <t>4-pokojowe mieszkanie 88m2 + ogródek Bez Prowizji</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>899 000 zł</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ul. Mieczyków, Nowa Wola, Lesznowola, piaseczyński, mazowieckie</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Wiklinowa, Henryków, Białołęka, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>11 322 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/4-pokojowe-mieszkanie-88m2-ogrodek-bez-prowizji-ID4ucU4</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2 piętro</t>
+          <t>2025-06-05 11:53:10.705970</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>88.93 m²</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/komfortowe-79-m-2-poziomy-2-miejsca-postojowe-ID4wGRc</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.319223</t>
-        </is>
-      </c>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>ogródek garaż/miejsce parkingowe dwupoziomowe oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>teren zamknięty</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dwupoziomowe mieszkanie garderoba, garaż, pralnia</t>
+          <t>Przestronne 3-pokojowe mieszkanie 74m2 os Kolorowe</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1 250 000 zł</t>
+          <t>579 000 zł</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ul. Rubież, Naramowice, Stare Miasto, Poznań, wielkopolskie</t>
+          <t>7 824 zł/m²</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4 pokoje</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>osiedle  Kolorowe, Dzierżoniów, dzierżoniowski, dolnośląskie</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>13 441 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/przestronne-3-pokojowe-mieszkanie-74m2-os-kolorowe-ID4u7Hq</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3 piętro</t>
+          <t>2025-06-05 11:53:11.167694</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>74 m²</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/dwupoziomowe-mieszkanie-garderoba-garaz-pralnia-ID4rLvc</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.319788</t>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>parter/3</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>800 zł</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>spółdzielcze wł. prawo do lokalu</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>prywatny</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>balkon piwnica</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>W trakcie realizacji / Zwolnione</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>zmywarka lodówka meble piekarnik kuchenka pralka klimatyzacja</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>drzwi / okna antywłamaniowe domofon / wideofon rolety antywłamaniowe</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>internet telewizja kablowa telefon</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>⭐️  Twoje Wymarzone Mieszkanie ⭐️</t>
+          <t>2-pokojowe mieszkanie 37m2 + ogródek Bez Prowizji</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1 045 000 zł</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Stacja Metra "Plac Wilsona", Stary Żoliborz, Żoliborz, Warszawa, mazowieckie</t>
+          <t>brak</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. św. Huberta, Ujeścisko-Łostowice, Gdańsk, pomorskie</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>13 933 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/2-pokojowe-mieszkanie-37m2-ogrodek-bez-prowizji-ID4uC2A</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3 piętro</t>
+          <t>2025-06-05 11:53:11.922090</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>37.6 m²</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/twoje-wymarzone-mieszkanie-ID4vIfE</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.320331</t>
-        </is>
-      </c>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>parter/4</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>do wykończenia</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>pierwotny</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>deweloper</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>taras ogródek garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kawalerka 38m.kw. Zwycięstwa 18</t>
+          <t>[3D] 3pok., balkon, blisko centrum</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>200 000 zł</t>
+          <t>529 000 zł</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ul. Zwycięstwa, Świebodzice, świdnicki, dolnośląskie</t>
+          <t>8 294 zł/m²</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1 pokój</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. gen. Augusta Emila Fieldorfa, Świerczewo, Zachód, Szczecin, zachodniopomorskie</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5263 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/3d-3pok-balkon-blisko-centrum-ID4wLjK</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2 piętro</t>
+          <t>2025-06-05 11:53:12.519671</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>63.78 m²</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/kawalerka-38m-kw-zwyciestwa-18-ID4vIfA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.320863</t>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>820 zł</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>balkon garaż/miejsce parkingowe oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>wielka płyta</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>telewizja kablowa internet</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3-pokojowe mieszkanie 58m2 + balkon Bezpośrednio</t>
+          <t>Balkon | Piwnica | 4 pokoje</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>300 000 zł</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>al. Róż, Brochów, Krzyki, Wrocław, dolnośląskie</t>
+          <t>5 361 zł/m²</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Marszałka Piłsudskiego, Chełmek, Chełmek, oświęcimski, małopolskie</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>https://www.otodom.pl/pl/oferta/balkon-piwnica-4-pokoje-ID4v9kt</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1 piętro</t>
+          <t>2025-06-05 11:53:12.994277</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>55.96 m²</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/3-pokojowe-mieszkanie-58m2-balkon-bezposrednio-ID4ufV8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.321428</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>600 zł</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>do remontu</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>balkon piwnica</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>wielka płyta</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>plastikowe</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Zamieszkaj od razu – pełne wyposażenie, nowoczesne wykończenie</t>
+          <t>2-pokoje, krótkoterminowy wynajem, Centrum</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>486 150 zł</t>
+          <t>825 000 zł</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ul. Zygmunta Waliszewskiego, Szobiszowice, Gliwice, śląskie</t>
+          <t>20 955 zł/m²</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>Grzegórzki, Grzegórzki, Kraków, małopolskie</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10 500 zł/m²</t>
+          <t>https://www.otodom.pl/pl/oferta/2-pokoje-krotkoterminowy-wynajem-centrum-ID4wpQO</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3 piętro</t>
+          <t>2025-06-05 11:53:14.188673</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>39.37 m²</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/zamieszkaj-od-razu-pelne-wyposazenie-nowoczesne-wykonczenie-ID4vIfC</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.321984</t>
-        </is>
-      </c>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>6/6</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>do zamieszkania</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>pełna własność</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>garaż/miejsce parkingowe</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>apartamentowiec</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ul. Krucza, 2 pokoje, pełen rozkład, centrum</t>
+          <t>Grunwald, Palacza, 3 pokoje osobna jasna kuchnia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>539 000 zł</t>
+          <t>427 000 zł</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ul. Krucza, Powstańców Śląskich, Krzyki, Wrocław, dolnośląskie</t>
+          <t>8 896 zł/m²</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
+          <t>ul. Macieja Palacza, Górczyn, Grunwald, Poznań, wielkopolskie</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>11 717 zł/m²</t>
+          <t>https://www.otodom.pl/hpr/pl/oferta/grunwald-palacza-3-pokoje-osobna-jasna-kuchnia-ID4vIGi</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2 piętro</t>
+          <t>2025-06-05 11:53:14.815754</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>brak</t>
+          <t>48 m²</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/ul-krucza-2-pokoje-pelen-rozklad-centrum-ID4vGfh</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2025-06-05 00:32:14.322531</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Ostatnie wolne mieszkanie S. Dąbka 33</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>645 000 zł</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>ul. Stanisława Dąbka, Ujeścisko-Łostowice, Gdańsk, pomorskie</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>11 262 zł/m²</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>parter</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://www.otodom.pl/pl/oferta/ostatnie-wolne-mieszkanie-s-dabka-33-ID4vIfz</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>2025-06-05 00:32:14.323094</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>DWUPOZIOMOWY APARTAMENT 62m2 + antresola 40m2</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>840 000 zł</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Komorowice Krakowskie, Bielsko-Biała, śląskie</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>4 pokoje</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>13 548 zł/m²</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>1 piętro</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://www.otodom.pl/pl/oferta/dwupoziomowy-apartament-62m2-antresola-40m2-ID4wOSq</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>2025-06-05 00:32:14.323614</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Kawalerka 33,7 m² – Śródmieście, ul. Św. Jerzego</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>220 000 zł</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>ul. św. Jerzego, Stare Polesie, Polesie, Łódź, łódzkie</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1 pokój</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>6528 zł/m²</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>5 piętro</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://www.otodom.pl/pl/oferta/kawalerka-33-7-m-srodmiescie-ul-sw-jerzego-ID4vIfy</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>2025-06-05 00:32:14.324180</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Słoneczne mieszkanie, 3 pokoje, Czuby, Ul. Bursztynowa</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>620 000 zł</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>ul. Bursztynowa, Czuby Południowe, Lublin, lubelskie</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>9841 zł/m²</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>8 piętro</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://www.otodom.pl/pl/oferta/sloneczne-mieszkanie-3-pokoje-czuby-ul-bursztynowa-ID4wOIE</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>2025-06-05 00:32:14.324704</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Komfortowe, przestronne mieszkanie, Kamienna Góra</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>560 000 zł</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Kamienna Góra, kamiennogórski, dolnośląskie</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>4 pokoje</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4035 zł/m²</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2 piętro</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://www.otodom.pl/pl/oferta/komfortowe-przestronne-mieszkanie-kamienna-gora-ID4sWO3</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>2025-06-05 00:32:14.325222</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Park Tołstoja | 3 pokoje | A6 * Promocja</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>420 288 zł</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>ul. Lwa Tołstoja 8-10, Świdnica, świdnicki, dolnośląskie</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>9600 zł/m²</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>parter</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://www.otodom.pl/pl/oferta/park-tolstoja-3-pokoje-a6-promocja-ID4nHwd</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>2025-06-05 00:32:14.326024</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Przytulne w kameralnym bloku w Milanówku</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>610 000 zł</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>ul. Inżynierska, Milanówek, grodziski, mazowieckie</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>13 994 zł/m²</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2 piętro</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://www.otodom.pl/pl/oferta/przytulne-w-kameralnym-bloku-w-milanowku-ID4u1nG</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>2025-06-05 00:32:14.326977</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>3 pokoje 400m od Rynku! Bez prowizji</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>729 000 zł</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>ul. Dworcowa, Przedmieście Oławskie, Krzyki, Wrocław, dolnośląskie</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>3 pokoje</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>15 511 zł/m²</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>1 piętro</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://www.otodom.pl/pl/oferta/3-pokoje-400m-od-rynku-bez-prowizji-ID4t3LD</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>2025-06-05 00:32:14.327729</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Apartament dwupoziomowy z ogrodem</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>3 700 000 zł</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>ul. Władysława Łokietka, Karlikowo, Sopot, pomorskie</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>4 pokoje</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>28 462 zł/m²</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>parter</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://www.otodom.pl/pl/oferta/apartament-dwupoziomowy-z-ogrodem-ID4vpoL</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>2025-06-05 00:32:14.328308</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Nowy 2 pok. lokal 35 m2 centrum Bolszewa.</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>398 000 zł</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>ul. Długa, Bolszewo, Wejherowo, wejherowski, pomorskie</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2 pokoje</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>11 371 zł/m²</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2 piętro</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>brak</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>/hpr/pl/oferta/nowy-2-pok-lokal-35-m2-centrum-bolszewa-ID4vppr</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>2025-06-05 00:32:14.328875</t>
+          <t>miejskie</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>6/10</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>550 zł</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>do remontu</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>wtórny</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>spółdzielcze wł. prawo do lokalu</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>brak informacji</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>biuro nieruchomości</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>balkon piwnica oddzielna kuchnia</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>blok</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>drewniane</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>telewizja kablowa</t>
         </is>
       </c>
     </row>
